--- a/data/quiz181128v3.xlsx
+++ b/data/quiz181128v3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/coop2711/Google 드라이브/Works/Class/Data_Science/R.WD/r_programming_2/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F97D45CA-17C4-334B-8452-0D73B554FE9B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{943DC3CC-D95C-DD44-8B42-13C7250BC663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="42400" yWindow="1900" windowWidth="40960" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40960" yWindow="1900" windowWidth="38400" windowHeight="21140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="설문지 응답 시트1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="120">
   <si>
     <t>타임스탬프</t>
   </si>
@@ -381,6 +381,10 @@
   </si>
   <si>
     <t>07/29</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>12/31</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -402,6 +406,7 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="8"/>
@@ -436,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -444,6 +449,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -666,7 +672,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F47" sqref="F47"/>
+      <selection pane="bottomLeft" activeCell="F50" sqref="F50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
@@ -1263,8 +1269,8 @@
       <c r="E16" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>115</v>
+      <c r="F16" s="7" t="s">
+        <v>119</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>20</v>
